--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H2">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I2">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J2">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.065777</v>
+        <v>0.2441536666666667</v>
       </c>
       <c r="N2">
-        <v>0.197331</v>
+        <v>0.732461</v>
       </c>
       <c r="O2">
-        <v>0.001323818738770273</v>
+        <v>0.004116731254312699</v>
       </c>
       <c r="P2">
-        <v>0.001341700266060269</v>
+        <v>0.004134975729646142</v>
       </c>
       <c r="Q2">
-        <v>1.824516264887666</v>
+        <v>9.075994160333222</v>
       </c>
       <c r="R2">
-        <v>16.420646383989</v>
+        <v>81.683947442999</v>
       </c>
       <c r="S2">
-        <v>7.204847855716799E-06</v>
+        <v>2.128382979401061E-05</v>
       </c>
       <c r="T2">
-        <v>7.320711778280502E-06</v>
+        <v>2.145469708858051E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H3">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I3">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J3">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2263086666666667</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N3">
-        <v>0.678926</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O3">
-        <v>0.004554656698837722</v>
+        <v>0.003815842595804422</v>
       </c>
       <c r="P3">
-        <v>0.004616178881347757</v>
+        <v>0.003832753596745406</v>
       </c>
       <c r="Q3">
-        <v>6.277328598421556</v>
+        <v>8.412636865714887</v>
       </c>
       <c r="R3">
-        <v>56.495957385794</v>
+        <v>75.71373179143399</v>
       </c>
       <c r="S3">
-        <v>2.478859649670039E-05</v>
+        <v>1.972821136787958E-05</v>
       </c>
       <c r="T3">
-        <v>2.518723142730168E-05</v>
+        <v>1.988659010590545E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H4">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I4">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J4">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.95626266666667</v>
+        <v>33.20079366666667</v>
       </c>
       <c r="N4">
-        <v>62.868788</v>
+        <v>99.60238100000001</v>
       </c>
       <c r="O4">
-        <v>0.4217628230646765</v>
+        <v>0.5598062352352703</v>
       </c>
       <c r="P4">
-        <v>0.4274597989494132</v>
+        <v>0.5622871771329369</v>
       </c>
       <c r="Q4">
-        <v>581.2828509447302</v>
+        <v>1234.18260946492</v>
       </c>
       <c r="R4">
-        <v>5231.545658502572</v>
+        <v>11107.64348518428</v>
       </c>
       <c r="S4">
-        <v>0.00229543281295546</v>
+        <v>0.002894243003084392</v>
       </c>
       <c r="T4">
-        <v>0.002332346548681251</v>
+        <v>0.002917478082322999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H5">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I5">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J5">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.986625</v>
+        <v>0.7850375000000001</v>
       </c>
       <c r="N5">
-        <v>3.97325</v>
+        <v>1.570075</v>
       </c>
       <c r="O5">
-        <v>0.03998253799822876</v>
+        <v>0.01323669824901601</v>
       </c>
       <c r="P5">
-        <v>0.02701506900651172</v>
+        <v>0.008863573649278483</v>
       </c>
       <c r="Q5">
-        <v>55.10481816945833</v>
+        <v>29.18242376990417</v>
       </c>
       <c r="R5">
-        <v>330.62890901675</v>
+        <v>175.094542619425</v>
       </c>
       <c r="S5">
-        <v>0.0002176038869416875</v>
+        <v>6.843478846757277E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001474021723553471</v>
+        <v>4.598945681934334E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H6">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I6">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J6">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.45234266666667</v>
+        <v>24.851359</v>
       </c>
       <c r="N6">
-        <v>79.357028</v>
+        <v>74.55407699999999</v>
       </c>
       <c r="O6">
-        <v>0.5323761634994868</v>
+        <v>0.4190244926655965</v>
       </c>
       <c r="P6">
-        <v>0.5395672528966671</v>
+        <v>0.4208815198913931</v>
       </c>
       <c r="Q6">
-        <v>733.7326031852368</v>
+        <v>923.8066838794603</v>
       </c>
       <c r="R6">
-        <v>6603.593428667132</v>
+        <v>8314.260154915142</v>
       </c>
       <c r="S6">
-        <v>0.002897442941159057</v>
+        <v>0.002166390135881038</v>
       </c>
       <c r="T6">
-        <v>0.002944037832722358</v>
+        <v>0.002183781988056302</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>135.476761</v>
       </c>
       <c r="I7">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J7">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.065777</v>
+        <v>0.2441536666666667</v>
       </c>
       <c r="N7">
-        <v>0.197331</v>
+        <v>0.732461</v>
       </c>
       <c r="O7">
-        <v>0.001323818738770273</v>
+        <v>0.004116731254312699</v>
       </c>
       <c r="P7">
-        <v>0.001341700266060269</v>
+        <v>0.004134975729646142</v>
       </c>
       <c r="Q7">
-        <v>2.970418302765667</v>
+        <v>11.02571598209122</v>
       </c>
       <c r="R7">
-        <v>26.733764724891</v>
+        <v>99.23144383882101</v>
       </c>
       <c r="S7">
-        <v>1.172991019654232E-05</v>
+        <v>2.585606140488265E-05</v>
       </c>
       <c r="T7">
-        <v>1.19185433826842E-05</v>
+        <v>2.606363472712979E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>135.476761</v>
       </c>
       <c r="I8">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J8">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2263086666666667</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N8">
-        <v>0.678926</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O8">
-        <v>0.004554656698837722</v>
+        <v>0.003815842595804422</v>
       </c>
       <c r="P8">
-        <v>0.004616178881347757</v>
+        <v>0.003832753596745406</v>
       </c>
       <c r="Q8">
         <v>10.21985504874289</v>
       </c>
       <c r="R8">
-        <v>91.97869543868602</v>
+        <v>91.97869543868599</v>
       </c>
       <c r="S8">
-        <v>4.035727285676194E-05</v>
+        <v>2.396626215644431E-05</v>
       </c>
       <c r="T8">
-        <v>4.100627364495318E-05</v>
+        <v>2.415866410737407E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>135.476761</v>
       </c>
       <c r="I9">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J9">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.95626266666667</v>
+        <v>33.20079366666667</v>
       </c>
       <c r="N9">
-        <v>62.868788</v>
+        <v>99.60238100000001</v>
       </c>
       <c r="O9">
-        <v>0.4217628230646765</v>
+        <v>0.5598062352352703</v>
       </c>
       <c r="P9">
-        <v>0.4274597989494132</v>
+        <v>0.5622871771329369</v>
       </c>
       <c r="Q9">
-        <v>946.3621962484076</v>
+        <v>1499.311996196438</v>
       </c>
       <c r="R9">
-        <v>8517.259766235669</v>
+        <v>13493.80796576794</v>
       </c>
       <c r="S9">
-        <v>0.003737097756588967</v>
+        <v>0.003515989628401398</v>
       </c>
       <c r="T9">
-        <v>0.003797195459379297</v>
+        <v>0.003544216110258993</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>135.476761</v>
       </c>
       <c r="I10">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J10">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.986625</v>
+        <v>0.7850375000000001</v>
       </c>
       <c r="N10">
-        <v>3.97325</v>
+        <v>1.570075</v>
       </c>
       <c r="O10">
-        <v>0.03998253799822876</v>
+        <v>0.01323669824901601</v>
       </c>
       <c r="P10">
-        <v>0.02701506900651172</v>
+        <v>0.008863573649278483</v>
       </c>
       <c r="Q10">
-        <v>89.71384010720833</v>
+        <v>35.45144592117917</v>
       </c>
       <c r="R10">
-        <v>538.28304064325</v>
+        <v>212.708675527075</v>
       </c>
       <c r="S10">
-        <v>0.0003542717491555693</v>
+        <v>8.313607607149963E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002399792860485682</v>
+        <v>5.58689968396929E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>135.476761</v>
       </c>
       <c r="I11">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J11">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>26.45234266666667</v>
+        <v>24.851359</v>
       </c>
       <c r="N11">
-        <v>79.357028</v>
+        <v>74.55407699999999</v>
       </c>
       <c r="O11">
-        <v>0.5323761634994868</v>
+        <v>0.4190244926655965</v>
       </c>
       <c r="P11">
-        <v>0.5395672528966671</v>
+        <v>0.4208815198913931</v>
       </c>
       <c r="Q11">
-        <v>1194.559235114034</v>
+        <v>1122.260541256066</v>
       </c>
       <c r="R11">
-        <v>10751.03311602631</v>
+        <v>10100.3448713046</v>
       </c>
       <c r="S11">
-        <v>0.004717205162414898</v>
+        <v>0.002631778064492647</v>
       </c>
       <c r="T11">
-        <v>0.004793064348424145</v>
+        <v>0.002652906066461297</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H12">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I12">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J12">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.065777</v>
+        <v>0.2441536666666667</v>
       </c>
       <c r="N12">
-        <v>0.197331</v>
+        <v>0.732461</v>
       </c>
       <c r="O12">
-        <v>0.001323818738770273</v>
+        <v>0.004116731254312699</v>
       </c>
       <c r="P12">
-        <v>0.001341700266060269</v>
+        <v>0.004134975729646142</v>
       </c>
       <c r="Q12">
-        <v>171.8534904211577</v>
+        <v>580.0109280444867</v>
       </c>
       <c r="R12">
-        <v>1546.681413790419</v>
+        <v>5220.09835240038</v>
       </c>
       <c r="S12">
-        <v>0.0006786337155698408</v>
+        <v>0.001360165470920902</v>
       </c>
       <c r="T12">
-        <v>0.0006895470847130229</v>
+        <v>0.001371084924629794</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H13">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I13">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J13">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2263086666666667</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N13">
-        <v>0.678926</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O13">
-        <v>0.004554656698837722</v>
+        <v>0.003815842595804422</v>
       </c>
       <c r="P13">
-        <v>0.004616178881347757</v>
+        <v>0.003832753596745406</v>
       </c>
       <c r="Q13">
-        <v>591.2695057425082</v>
+        <v>537.6183842327865</v>
       </c>
       <c r="R13">
-        <v>5321.425551682573</v>
+        <v>4838.56545809508</v>
       </c>
       <c r="S13">
-        <v>0.002334869199350177</v>
+        <v>0.001260752043467767</v>
       </c>
       <c r="T13">
-        <v>0.002372417126735657</v>
+        <v>0.001270873402869514</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H14">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I14">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J14">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.95626266666667</v>
+        <v>33.20079366666667</v>
       </c>
       <c r="N14">
-        <v>62.868788</v>
+        <v>99.60238100000001</v>
       </c>
       <c r="O14">
-        <v>0.4217628230646765</v>
+        <v>0.5598062352352703</v>
       </c>
       <c r="P14">
-        <v>0.4274597989494132</v>
+        <v>0.5622871771329369</v>
       </c>
       <c r="Q14">
-        <v>54751.76559358535</v>
+        <v>78871.73438483488</v>
       </c>
       <c r="R14">
-        <v>492765.8903422682</v>
+        <v>709845.6094635139</v>
       </c>
       <c r="S14">
-        <v>0.2162097146105408</v>
+        <v>0.1849596353358173</v>
       </c>
       <c r="T14">
-        <v>0.2196866659817316</v>
+        <v>0.1864444974494656</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H15">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I15">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J15">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.986625</v>
+        <v>0.7850375000000001</v>
       </c>
       <c r="N15">
-        <v>3.97325</v>
+        <v>1.570075</v>
       </c>
       <c r="O15">
-        <v>0.03998253799822876</v>
+        <v>0.01323669824901601</v>
       </c>
       <c r="P15">
-        <v>0.02701506900651172</v>
+        <v>0.008863573649278483</v>
       </c>
       <c r="Q15">
-        <v>5190.392392598207</v>
+        <v>1864.93340501975</v>
       </c>
       <c r="R15">
-        <v>31142.35435558924</v>
+        <v>11189.6004301185</v>
       </c>
       <c r="S15">
-        <v>0.02049638483351224</v>
+        <v>0.004373396948962746</v>
       </c>
       <c r="T15">
-        <v>0.01388399670774495</v>
+        <v>0.002939004483567212</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H16">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I16">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J16">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.45234266666667</v>
+        <v>24.851359</v>
       </c>
       <c r="N16">
-        <v>79.357028</v>
+        <v>74.55407699999999</v>
       </c>
       <c r="O16">
-        <v>0.5323761634994868</v>
+        <v>0.4190244926655965</v>
       </c>
       <c r="P16">
-        <v>0.5395672528966671</v>
+        <v>0.4208815198913931</v>
       </c>
       <c r="Q16">
-        <v>69111.20022322665</v>
+        <v>59036.83525849173</v>
       </c>
       <c r="R16">
-        <v>622000.8020090399</v>
+        <v>531331.5173264255</v>
       </c>
       <c r="S16">
-        <v>0.2729138086170945</v>
+        <v>0.1384454342985881</v>
       </c>
       <c r="T16">
-        <v>0.2773026402789716</v>
+        <v>0.1395568788568795</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H17">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I17">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J17">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.065777</v>
+        <v>0.2441536666666667</v>
       </c>
       <c r="N17">
-        <v>0.197331</v>
+        <v>0.732461</v>
       </c>
       <c r="O17">
-        <v>0.001323818738770273</v>
+        <v>0.004116731254312699</v>
       </c>
       <c r="P17">
-        <v>0.001341700266060269</v>
+        <v>0.004134975729646142</v>
       </c>
       <c r="Q17">
-        <v>2.547576887824</v>
+        <v>18.78862690080167</v>
       </c>
       <c r="R17">
-        <v>15.285461326944</v>
+        <v>112.73176140481</v>
       </c>
       <c r="S17">
-        <v>1.006014812295604E-05</v>
+        <v>4.406062079321014E-05</v>
       </c>
       <c r="T17">
-        <v>6.814619483050249E-06</v>
+        <v>2.960956061642471E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H18">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I18">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J18">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2263086666666667</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N18">
-        <v>0.678926</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O18">
-        <v>0.004554656698837722</v>
+        <v>0.003815842595804422</v>
       </c>
       <c r="P18">
-        <v>0.004616178881347757</v>
+        <v>0.003832753596745406</v>
       </c>
       <c r="Q18">
-        <v>8.765050530037335</v>
+        <v>17.41538089707666</v>
       </c>
       <c r="R18">
-        <v>52.59030318022401</v>
+        <v>104.49228538246</v>
       </c>
       <c r="S18">
-        <v>3.461238287205788E-05</v>
+        <v>4.084026457743277E-05</v>
       </c>
       <c r="T18">
-        <v>2.34459985868889E-05</v>
+        <v>2.744542105459098E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H19">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I19">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J19">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.95626266666667</v>
+        <v>33.20079366666667</v>
       </c>
       <c r="N19">
-        <v>62.868788</v>
+        <v>99.60238100000001</v>
       </c>
       <c r="O19">
-        <v>0.4217628230646765</v>
+        <v>0.5598062352352703</v>
       </c>
       <c r="P19">
-        <v>0.4274597989494132</v>
+        <v>0.5622871771329369</v>
       </c>
       <c r="Q19">
-        <v>811.6467826864855</v>
+        <v>2554.937361908002</v>
       </c>
       <c r="R19">
-        <v>4869.880696118913</v>
+        <v>15329.62417144801</v>
       </c>
       <c r="S19">
-        <v>0.003205118909804953</v>
+        <v>0.005991503628646219</v>
       </c>
       <c r="T19">
-        <v>0.002171107771108218</v>
+        <v>0.004026402412906256</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H20">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I20">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J20">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.986625</v>
+        <v>0.7850375000000001</v>
       </c>
       <c r="N20">
-        <v>3.97325</v>
+        <v>1.570075</v>
       </c>
       <c r="O20">
-        <v>0.03998253799822876</v>
+        <v>0.01323669824901601</v>
       </c>
       <c r="P20">
-        <v>0.02701506900651172</v>
+        <v>0.008863573649278483</v>
       </c>
       <c r="Q20">
-        <v>76.943003402</v>
+        <v>60.41185820393751</v>
       </c>
       <c r="R20">
-        <v>307.772013608</v>
+        <v>241.64743281575</v>
       </c>
       <c r="S20">
-        <v>0.000303840883055894</v>
+        <v>0.0001416699575647702</v>
       </c>
       <c r="T20">
-        <v>0.0001372120288298818</v>
+        <v>6.346990609033523E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H21">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I21">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J21">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>26.45234266666667</v>
+        <v>24.851359</v>
       </c>
       <c r="N21">
-        <v>79.357028</v>
+        <v>74.55407699999999</v>
       </c>
       <c r="O21">
-        <v>0.5323761634994868</v>
+        <v>0.4190244926655965</v>
       </c>
       <c r="P21">
-        <v>0.5395672528966671</v>
+        <v>0.4208815198913931</v>
       </c>
       <c r="Q21">
-        <v>1024.512775079445</v>
+        <v>1912.414089878695</v>
       </c>
       <c r="R21">
-        <v>6147.076650476673</v>
+        <v>11474.48453927217</v>
       </c>
       <c r="S21">
-        <v>0.00404570724456659</v>
+        <v>0.004484742416708589</v>
       </c>
       <c r="T21">
-        <v>0.002740511876622346</v>
+        <v>0.003013830718813828</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H22">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I22">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J22">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.065777</v>
+        <v>0.2441536666666667</v>
       </c>
       <c r="N22">
-        <v>0.197331</v>
+        <v>0.732461</v>
       </c>
       <c r="O22">
-        <v>0.001323818738770273</v>
+        <v>0.004116731254312699</v>
       </c>
       <c r="P22">
-        <v>0.001341700266060269</v>
+        <v>0.004134975729646142</v>
       </c>
       <c r="Q22">
-        <v>156.0406150538613</v>
+        <v>1136.583024413493</v>
       </c>
       <c r="R22">
-        <v>1404.365535484752</v>
+        <v>10229.24721972144</v>
       </c>
       <c r="S22">
-        <v>0.0006161901170252171</v>
+        <v>0.002665365271399694</v>
       </c>
       <c r="T22">
-        <v>0.0006260993067032309</v>
+        <v>0.002686762912584214</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H23">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I23">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J23">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2263086666666667</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N23">
-        <v>0.678926</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O23">
-        <v>0.004554656698837722</v>
+        <v>0.003815842595804422</v>
       </c>
       <c r="P23">
-        <v>0.004616178881347757</v>
+        <v>0.003832753596745406</v>
       </c>
       <c r="Q23">
-        <v>536.8646113183324</v>
+        <v>1053.511062613512</v>
       </c>
       <c r="R23">
-        <v>4831.781501864993</v>
+        <v>9481.599563521604</v>
       </c>
       <c r="S23">
-        <v>0.002120029247262024</v>
+        <v>0.002470555814234899</v>
       </c>
       <c r="T23">
-        <v>0.002154122250952956</v>
+        <v>0.002490389518608021</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H24">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I24">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J24">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.95626266666667</v>
+        <v>33.20079366666667</v>
       </c>
       <c r="N24">
-        <v>62.868788</v>
+        <v>99.60238100000001</v>
       </c>
       <c r="O24">
-        <v>0.4217628230646765</v>
+        <v>0.5598062352352703</v>
       </c>
       <c r="P24">
-        <v>0.4274597989494132</v>
+        <v>0.5622871771329369</v>
       </c>
       <c r="Q24">
-        <v>49713.85310575032</v>
+        <v>154556.1817431441</v>
       </c>
       <c r="R24">
-        <v>447424.6779517529</v>
+        <v>1391005.635688297</v>
       </c>
       <c r="S24">
-        <v>0.1963154589747863</v>
+        <v>0.362444863639321</v>
       </c>
       <c r="T24">
-        <v>0.1994724831885127</v>
+        <v>0.3653545830779831</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H25">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I25">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J25">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.986625</v>
+        <v>0.7850375000000001</v>
       </c>
       <c r="N25">
-        <v>3.97325</v>
+        <v>1.570075</v>
       </c>
       <c r="O25">
-        <v>0.03998253799822876</v>
+        <v>0.01323669824901601</v>
       </c>
       <c r="P25">
-        <v>0.02701506900651172</v>
+        <v>0.008863573649278483</v>
       </c>
       <c r="Q25">
-        <v>4712.805188460667</v>
+        <v>3654.502953855595</v>
       </c>
       <c r="R25">
-        <v>28276.831130764</v>
+        <v>21927.01772313357</v>
       </c>
       <c r="S25">
-        <v>0.01861043664556337</v>
+        <v>0.008570060477949422</v>
       </c>
       <c r="T25">
-        <v>0.01260647881153297</v>
+        <v>0.0057592408059619</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H26">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I26">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J26">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>26.45234266666667</v>
+        <v>24.851359</v>
       </c>
       <c r="N26">
-        <v>79.357028</v>
+        <v>74.55407699999999</v>
       </c>
       <c r="O26">
-        <v>0.5323761634994868</v>
+        <v>0.4190244926655965</v>
       </c>
       <c r="P26">
-        <v>0.5395672528966671</v>
+        <v>0.4208815198913931</v>
       </c>
       <c r="Q26">
-        <v>62752.02303726477</v>
+        <v>115687.9319431566</v>
       </c>
       <c r="R26">
-        <v>564768.207335383</v>
+        <v>1041191.38748841</v>
       </c>
       <c r="S26">
-        <v>0.2478019995342517</v>
+        <v>0.2712961477499262</v>
       </c>
       <c r="T26">
-        <v>0.2517869985599266</v>
+        <v>0.2734741222611821</v>
       </c>
     </row>
   </sheetData>
